--- a/observations/orbit_plans/mtp060/nomad_mtp060_plan.xlsx
+++ b/observations/orbit_plans/mtp060/nomad_mtp060_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp060\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBF3DE-7047-4206-B1E0-333CF41707B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="593">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1790,16 +1796,26 @@
   </si>
   <si>
     <t>2022 NOV 26 12:09:42</t>
+  </si>
+  <si>
+    <t>&amp;new observation added for CaSSIS;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1825,14 +1841,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1879,7 +1904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1911,9 +1936,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,6 +1988,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2120,14 +2181,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2185,7 +2251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2211,7 +2277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2225,7 +2291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -2239,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2262,7 +2328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2273,7 +2339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2287,7 +2353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2304,7 +2370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2327,7 +2393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2350,7 +2416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2364,7 +2430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2390,7 +2456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2404,7 +2470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2418,7 +2484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2441,7 +2507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2458,7 +2524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2481,7 +2547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2504,7 +2570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2518,7 +2584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2544,7 +2610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2558,7 +2624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2581,7 +2647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2595,7 +2661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2606,7 +2672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2620,7 +2686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2637,7 +2703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2660,7 +2726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2674,7 +2740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2697,7 +2763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2714,7 +2780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2737,7 +2803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2751,7 +2817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2774,7 +2840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2800,7 +2866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2814,7 +2880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2837,7 +2903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47</v>
       </c>
@@ -2857,7 +2923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2871,7 +2937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2894,7 +2960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2920,7 +2986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2934,7 +3000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2957,7 +3023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2974,7 +3040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2997,7 +3063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3011,7 +3077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3037,7 +3103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3060,7 +3126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3074,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3094,7 +3160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3108,7 +3174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3125,7 +3191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3148,7 +3214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3165,7 +3231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3179,7 +3245,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3202,7 +3268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3219,7 +3285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3242,7 +3308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3268,7 +3334,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3282,7 +3348,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3305,7 +3371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3319,7 +3385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3345,7 +3411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3359,7 +3425,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3382,7 +3448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3396,7 +3462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3413,7 +3479,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3436,7 +3502,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3450,7 +3516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3476,7 +3542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3499,7 +3565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3516,7 +3582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3539,7 +3605,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3553,7 +3619,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3579,7 +3645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3593,7 +3659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3616,7 +3682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3639,7 +3705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3653,7 +3719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3667,7 +3733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3690,7 +3756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3707,7 +3773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3730,7 +3796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3744,7 +3810,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3770,7 +3836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3781,7 +3847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3792,7 +3858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3806,7 +3872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3829,7 +3895,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3846,7 +3912,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3860,7 +3926,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3883,7 +3949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3897,7 +3963,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3923,7 +3989,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3946,7 +4012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3960,7 +4026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3983,7 +4049,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>28</v>
       </c>
@@ -3997,7 +4063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4011,7 +4077,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4034,7 +4100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4057,7 +4123,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4071,7 +4137,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4088,7 +4154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14</v>
       </c>
@@ -4102,7 +4168,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4125,7 +4191,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4139,7 +4205,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4162,7 +4228,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4179,7 +4245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4202,7 +4268,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4225,7 +4291,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4239,7 +4305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4265,7 +4331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4279,7 +4345,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4293,7 +4359,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4316,7 +4382,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4330,7 +4396,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4344,7 +4410,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4355,7 +4421,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4369,7 +4435,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4395,7 +4461,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4418,7 +4484,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4432,7 +4498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4455,7 +4521,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4472,7 +4538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4495,7 +4561,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4509,7 +4575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4523,7 +4589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4546,7 +4612,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4563,7 +4629,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4577,7 +4643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4600,7 +4666,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4614,7 +4680,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4637,7 +4703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4663,7 +4729,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4677,7 +4743,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4700,7 +4766,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4714,7 +4780,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4740,7 +4806,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4754,7 +4820,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4768,7 +4834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4782,7 +4848,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4808,7 +4874,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4831,7 +4897,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4845,7 +4911,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4868,7 +4934,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4885,7 +4951,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4908,7 +4974,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14</v>
       </c>
@@ -4922,7 +4988,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4933,7 +4999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4956,7 +5022,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4979,7 +5045,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -4993,7 +5059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5010,7 +5076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5024,7 +5090,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5047,7 +5113,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5061,7 +5127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5087,7 +5153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5119,7 +5185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5133,7 +5199,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>28</v>
       </c>
@@ -5150,7 +5216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5164,7 +5230,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5196,7 +5262,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5210,7 +5276,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5233,7 +5299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5268,7 +5334,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5282,7 +5348,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5296,7 +5362,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5328,7 +5394,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -5345,7 +5411,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5377,7 +5443,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5391,7 +5457,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5402,7 +5468,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5416,7 +5482,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5451,7 +5517,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5483,7 +5549,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14</v>
       </c>
@@ -5497,7 +5563,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5529,7 +5595,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -5546,7 +5612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5560,7 +5626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5592,7 +5658,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5609,7 +5675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5641,7 +5707,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5673,7 +5739,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5690,7 +5756,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5704,7 +5770,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5736,7 +5802,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5747,7 +5813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5758,7 +5824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5781,7 +5847,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5813,7 +5879,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5830,7 +5896,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5862,7 +5928,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5876,7 +5942,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5890,7 +5956,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5925,7 +5991,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5957,7 +6023,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>14</v>
       </c>
@@ -5971,7 +6037,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6003,7 +6069,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6017,7 +6083,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6034,7 +6100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6057,7 +6123,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6071,7 +6137,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6106,7 +6172,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6138,7 +6204,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6152,7 +6218,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6184,7 +6250,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6198,7 +6264,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6233,7 +6299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6247,7 +6313,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6279,7 +6345,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6311,7 +6377,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6325,7 +6391,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6351,7 +6417,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6365,7 +6431,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6397,7 +6463,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6423,7 +6489,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6437,7 +6503,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6469,7 +6535,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6483,7 +6549,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6515,7 +6581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6550,7 +6616,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14</v>
       </c>
@@ -6561,7 +6627,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6572,7 +6638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6604,7 +6670,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
@@ -6621,7 +6687,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6644,7 +6710,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>14</v>
       </c>
@@ -6658,7 +6724,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6681,7 +6747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6716,7 +6782,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6730,7 +6796,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6762,7 +6828,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6776,7 +6842,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6811,7 +6877,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6825,7 +6891,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6857,7 +6923,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6889,7 +6955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6903,7 +6969,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6929,7 +6995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14</v>
       </c>
@@ -6943,7 +7009,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -6975,7 +7041,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6989,7 +7055,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7021,7 +7087,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3</v>
       </c>
@@ -7038,7 +7104,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -7070,7 +7136,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14</v>
       </c>
@@ -7084,7 +7150,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -7116,7 +7182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>28</v>
       </c>
@@ -7142,7 +7208,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
@@ -7156,7 +7222,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -7191,7 +7257,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>14</v>
       </c>
@@ -7205,7 +7271,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7228,7 +7294,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>14</v>
       </c>
@@ -7239,7 +7305,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3</v>
       </c>
@@ -7256,7 +7322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7288,7 +7354,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7320,7 +7386,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -7337,7 +7403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7360,7 +7426,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7371,7 +7437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7388,7 +7454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7420,7 +7486,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7434,7 +7500,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7466,7 +7532,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>14</v>
       </c>
@@ -7477,7 +7543,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7500,7 +7566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -7517,7 +7583,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7549,7 +7615,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7563,7 +7629,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7595,7 +7661,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7630,7 +7696,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
@@ -7644,7 +7710,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7676,7 +7742,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7690,7 +7756,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7722,7 +7788,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7754,7 +7820,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -7771,7 +7837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7794,7 +7860,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7808,7 +7874,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7825,7 +7891,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7857,7 +7923,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7871,7 +7937,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7903,7 +7969,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7935,7 +8001,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -7952,7 +8018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7984,7 +8050,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7998,7 +8064,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -8030,7 +8096,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3</v>
       </c>
@@ -8047,7 +8113,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -8070,7 +8136,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -8102,7 +8168,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>14</v>
       </c>
@@ -8116,7 +8182,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3</v>
       </c>
@@ -8133,7 +8199,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -8165,7 +8231,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>14</v>
       </c>
@@ -8179,7 +8245,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8211,7 +8277,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -8246,7 +8312,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8260,7 +8326,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8292,7 +8358,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8306,7 +8372,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -8341,7 +8407,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8373,7 +8439,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8387,7 +8453,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8419,7 +8485,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3</v>
       </c>
@@ -8436,7 +8502,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8450,7 +8516,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8482,7 +8548,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8496,7 +8562,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -8531,7 +8597,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8563,7 +8629,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8577,7 +8643,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8609,7 +8675,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3</v>
       </c>
@@ -8626,7 +8692,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8640,7 +8706,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8654,7 +8720,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8686,7 +8752,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3</v>
       </c>
@@ -8703,7 +8769,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8735,7 +8801,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8749,7 +8815,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -8781,7 +8847,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -8798,7 +8864,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8830,7 +8896,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8862,7 +8928,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8876,7 +8942,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8911,7 +8977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8925,7 +8991,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8948,7 +9014,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8980,7 +9046,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8997,21 +9063,24 @@
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
-      <c r="A328">
-        <v>14</v>
-      </c>
-      <c r="I328" t="s">
-        <v>8</v>
-      </c>
-      <c r="L328" t="s">
+    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>3</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L328" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M328" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="M328" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -9043,7 +9112,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14</v>
       </c>
@@ -9057,7 +9126,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -9089,7 +9158,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
@@ -9103,7 +9172,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -9135,7 +9204,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -9170,7 +9239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>14</v>
       </c>
@@ -9184,7 +9253,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -9216,7 +9285,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>14</v>
       </c>
@@ -9230,7 +9299,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9256,7 +9325,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>14</v>
       </c>
@@ -9270,7 +9339,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>14</v>
       </c>
@@ -9284,7 +9353,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9316,7 +9385,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>

--- a/observations/orbit_plans/mtp060/nomad_mtp060_plan.xlsx
+++ b/observations/orbit_plans/mtp060/nomad_mtp060_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp060\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBF3DE-7047-4206-B1E0-333CF41707B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D933A84-5E83-42C6-A48A-6C4C5CF90B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1862,9 +1862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1902,9 +1902,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1937,26 +1937,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,26 +1972,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2185,15 +2151,15 @@
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+      <selection activeCell="N328" sqref="N328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2251,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2277,7 +2243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2291,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -2305,7 +2271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2328,7 +2294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2339,7 +2305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2353,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2370,7 +2336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2393,7 +2359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2416,7 +2382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2430,7 +2396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2456,7 +2422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2470,7 +2436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2484,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2507,7 +2473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2524,7 +2490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2547,7 +2513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2570,7 +2536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2584,7 +2550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2610,7 +2576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2624,7 +2590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2647,7 +2613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2661,7 +2627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2672,7 +2638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2686,7 +2652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2703,7 +2669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2726,7 +2692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2740,7 +2706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2763,7 +2729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2780,7 +2746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2803,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2817,7 +2783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2840,7 +2806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2866,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2880,7 +2846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2903,7 +2869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>47</v>
       </c>
@@ -2923,7 +2889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2937,7 +2903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2960,7 +2926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2986,7 +2952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -3000,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3023,7 +2989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3040,7 +3006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3063,7 +3029,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3077,7 +3043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3103,7 +3069,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3126,7 +3092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3140,7 +3106,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3160,7 +3126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3174,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3191,7 +3157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3214,7 +3180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3231,7 +3197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3245,7 +3211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3268,7 +3234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3285,7 +3251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3308,7 +3274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3334,7 +3300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3348,7 +3314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3371,7 +3337,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3385,7 +3351,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3411,7 +3377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3425,7 +3391,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3448,7 +3414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3462,7 +3428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3479,7 +3445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3502,7 +3468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3516,7 +3482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3542,7 +3508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3565,7 +3531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3582,7 +3548,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3605,7 +3571,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3619,7 +3585,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3645,7 +3611,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3659,7 +3625,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3682,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3705,7 +3671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3719,7 +3685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3733,7 +3699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3756,7 +3722,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3773,7 +3739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3796,7 +3762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3810,7 +3776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3836,7 +3802,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3847,7 +3813,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3858,7 +3824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3872,7 +3838,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3895,7 +3861,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3912,7 +3878,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3926,7 +3892,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3949,7 +3915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3963,7 +3929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3989,7 +3955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4012,7 +3978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -4026,7 +3992,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4049,7 +4015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>28</v>
       </c>
@@ -4063,7 +4029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4077,7 +4043,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4100,7 +4066,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4123,7 +4089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4137,7 +4103,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4154,7 +4120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -4168,7 +4134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4191,7 +4157,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4205,7 +4171,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4228,7 +4194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4245,7 +4211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4268,7 +4234,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4291,7 +4257,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4305,7 +4271,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4331,7 +4297,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4345,7 +4311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4359,7 +4325,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4382,7 +4348,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4396,7 +4362,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4410,7 +4376,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4421,7 +4387,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4435,7 +4401,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4461,7 +4427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4484,7 +4450,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4498,7 +4464,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4521,7 +4487,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4538,7 +4504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4561,7 +4527,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4575,7 +4541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4589,7 +4555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4612,7 +4578,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4629,7 +4595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4643,7 +4609,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4666,7 +4632,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4680,7 +4646,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4703,7 +4669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4729,7 +4695,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4743,7 +4709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4766,7 +4732,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4780,7 +4746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4806,7 +4772,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4820,7 +4786,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4834,7 +4800,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4848,7 +4814,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4874,7 +4840,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4897,7 +4863,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4911,7 +4877,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4934,7 +4900,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4951,7 +4917,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4974,7 +4940,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -4988,7 +4954,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4999,7 +4965,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5022,7 +4988,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5045,7 +5011,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -5059,7 +5025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5076,7 +5042,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5090,7 +5056,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5113,7 +5079,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5127,7 +5093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5153,7 +5119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5185,7 +5151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5199,7 +5165,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>28</v>
       </c>
@@ -5216,7 +5182,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5230,7 +5196,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5262,7 +5228,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5276,7 +5242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5299,7 +5265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5334,7 +5300,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5348,7 +5314,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5362,7 +5328,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5394,7 +5360,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3</v>
       </c>
@@ -5411,7 +5377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5443,7 +5409,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5457,7 +5423,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5468,7 +5434,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5482,7 +5448,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5517,7 +5483,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5549,7 +5515,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -5563,7 +5529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5595,7 +5561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3</v>
       </c>
@@ -5612,7 +5578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5626,7 +5592,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5658,7 +5624,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5675,7 +5641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5707,7 +5673,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5739,7 +5705,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5756,7 +5722,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5770,7 +5736,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5802,7 +5768,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5813,7 +5779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5824,7 +5790,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5847,7 +5813,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5879,7 +5845,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5896,7 +5862,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5928,7 +5894,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5942,7 +5908,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5956,7 +5922,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5991,7 +5957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6023,7 +5989,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6037,7 +6003,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6069,7 +6035,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6083,7 +6049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3</v>
       </c>
@@ -6100,7 +6066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6123,7 +6089,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6137,7 +6103,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6172,7 +6138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6204,7 +6170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6218,7 +6184,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6250,7 +6216,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6264,7 +6230,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6299,7 +6265,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6313,7 +6279,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6345,7 +6311,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6377,7 +6343,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6391,7 +6357,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6417,7 +6383,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6431,7 +6397,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6463,7 +6429,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6489,7 +6455,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6503,7 +6469,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6535,7 +6501,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6549,7 +6515,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6581,7 +6547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6616,7 +6582,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>14</v>
       </c>
@@ -6627,7 +6593,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6638,7 +6604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6670,7 +6636,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3</v>
       </c>
@@ -6687,7 +6653,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6710,7 +6676,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14</v>
       </c>
@@ -6724,7 +6690,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6747,7 +6713,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6782,7 +6748,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6796,7 +6762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6828,7 +6794,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6842,7 +6808,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6877,7 +6843,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6891,7 +6857,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6923,7 +6889,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6955,7 +6921,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6969,7 +6935,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6995,7 +6961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14</v>
       </c>
@@ -7009,7 +6975,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
@@ -7041,7 +7007,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14</v>
       </c>
@@ -7055,7 +7021,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7087,7 +7053,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -7104,7 +7070,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -7136,7 +7102,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14</v>
       </c>
@@ -7150,7 +7116,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
@@ -7182,7 +7148,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>28</v>
       </c>
@@ -7208,7 +7174,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>14</v>
       </c>
@@ -7222,7 +7188,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -7257,7 +7223,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>14</v>
       </c>
@@ -7271,7 +7237,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7294,7 +7260,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>14</v>
       </c>
@@ -7305,7 +7271,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3</v>
       </c>
@@ -7322,7 +7288,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7354,7 +7320,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7386,7 +7352,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -7403,7 +7369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7426,7 +7392,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7437,7 +7403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7454,7 +7420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7486,7 +7452,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7500,7 +7466,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7532,7 +7498,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>14</v>
       </c>
@@ -7543,7 +7509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7566,7 +7532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -7583,7 +7549,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7615,7 +7581,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7629,7 +7595,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7661,7 +7627,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7696,7 +7662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>14</v>
       </c>
@@ -7710,7 +7676,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7742,7 +7708,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7756,7 +7722,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7788,7 +7754,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7820,7 +7786,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3</v>
       </c>
@@ -7837,7 +7803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7860,7 +7826,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7874,7 +7840,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7891,7 +7857,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7923,7 +7889,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7937,7 +7903,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7969,7 +7935,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -8001,7 +7967,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3</v>
       </c>
@@ -8018,7 +7984,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -8050,7 +8016,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>14</v>
       </c>
@@ -8064,7 +8030,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -8096,7 +8062,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3</v>
       </c>
@@ -8113,7 +8079,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -8136,7 +8102,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -8168,7 +8134,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>14</v>
       </c>
@@ -8182,7 +8148,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3</v>
       </c>
@@ -8199,7 +8165,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -8231,7 +8197,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -8245,7 +8211,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8277,7 +8243,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -8312,7 +8278,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8326,7 +8292,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8358,7 +8324,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8372,7 +8338,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -8407,7 +8373,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8439,7 +8405,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8453,7 +8419,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8485,7 +8451,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3</v>
       </c>
@@ -8502,7 +8468,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8516,7 +8482,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8548,7 +8514,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8562,7 +8528,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -8597,7 +8563,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8629,7 +8595,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8643,7 +8609,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8675,7 +8641,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3</v>
       </c>
@@ -8692,7 +8658,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8706,7 +8672,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8720,7 +8686,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8752,7 +8718,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3</v>
       </c>
@@ -8769,7 +8735,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8801,7 +8767,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8815,7 +8781,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
@@ -8847,7 +8813,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3</v>
       </c>
@@ -8864,7 +8830,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8896,7 +8862,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8928,7 +8894,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8942,7 +8908,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8977,7 +8943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8991,7 +8957,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -9014,7 +8980,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
@@ -9046,7 +9012,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -9063,7 +9029,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>3</v>
       </c>
@@ -9080,7 +9046,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
@@ -9112,7 +9078,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -9126,7 +9092,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1</v>
       </c>
@@ -9158,7 +9124,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -9172,7 +9138,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -9204,7 +9170,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
@@ -9239,7 +9205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>14</v>
       </c>
@@ -9253,7 +9219,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
@@ -9285,7 +9251,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -9299,7 +9265,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9325,7 +9291,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -9339,7 +9305,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>14</v>
       </c>
@@ -9353,7 +9319,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9385,7 +9351,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
